--- a/plots/basic_stats/two_var_stats/allmus_country_name_vs_governance-PC.xlsx
+++ b/plots/basic_stats/two_var_stats/allmus_country_name_vs_governance-PC.xlsx
@@ -365,67 +365,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>/Government/Cadw</t>
+          <t>Government-Cadw</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>/Government/Local Authority</t>
+          <t>Government-Local_Authority</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>/Government/National</t>
+          <t>Government-National</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>/Government/Other</t>
+          <t>Government-Other</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/English Heritage</t>
+          <t>Independent-English_Heritage</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/Historic Environment Scotland</t>
+          <t>Independent-Historic_Environment_Scotland</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/National Trust</t>
+          <t>Independent-National_Trust</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/National Trust for Scotland</t>
+          <t>Independent-National_Trust_for_Scotland</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/Not for profit</t>
+          <t>Independent-Not_for_profit</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/Private</t>
+          <t>Independent-Private</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/Unknown</t>
+          <t>Independent-Unknown</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>/University</t>
+          <t>University</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>/Unknown</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -444,43 +444,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>16.423</v>
+        <v>15.718</v>
       </c>
       <c r="D2">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="E2">
-        <v>0.126</v>
+        <v>0.167</v>
       </c>
       <c r="F2">
-        <v>1.31</v>
+        <v>1.268</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.106</v>
+        <v>3.923</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>31.763</v>
+        <v>32.081</v>
       </c>
       <c r="K2">
-        <v>13.3</v>
+        <v>14.067</v>
       </c>
       <c r="L2">
-        <v>4.282</v>
+        <v>3.947</v>
       </c>
       <c r="M2">
-        <v>1.839</v>
+        <v>1.818</v>
       </c>
       <c r="N2">
-        <v>1.965</v>
+        <v>1.986</v>
       </c>
       <c r="O2">
-        <v>76.42400000000001</v>
+        <v>76.315</v>
       </c>
     </row>
     <row r="3">
@@ -493,10 +493,10 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.831</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="D3">
-        <v>0.101</v>
+        <v>0.096</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -508,28 +508,28 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.176</v>
+        <v>0.167</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.705</v>
+        <v>0.766</v>
       </c>
       <c r="K3">
-        <v>0.327</v>
+        <v>0.431</v>
       </c>
       <c r="L3">
-        <v>0.076</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="M3">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="N3">
-        <v>0.202</v>
+        <v>0.191</v>
       </c>
       <c r="O3">
-        <v>2.443</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="4">
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.98</v>
+        <v>3.876</v>
       </c>
       <c r="D4">
-        <v>0.277</v>
+        <v>0.263</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -554,31 +554,31 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.453</v>
+        <v>0.502</v>
       </c>
       <c r="H4">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.655</v>
+        <v>0.646</v>
       </c>
       <c r="J4">
-        <v>5.819</v>
+        <v>6.005</v>
       </c>
       <c r="K4">
-        <v>1.864</v>
+        <v>1.842</v>
       </c>
       <c r="L4">
-        <v>1.008</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="M4">
-        <v>0.6800000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="N4">
-        <v>0.202</v>
+        <v>0.167</v>
       </c>
       <c r="O4">
-        <v>14.963</v>
+        <v>14.904</v>
       </c>
     </row>
     <row r="5">
@@ -588,16 +588,16 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.076</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="C5">
-        <v>1.486</v>
+        <v>1.459</v>
       </c>
       <c r="D5">
-        <v>0.202</v>
+        <v>0.263</v>
       </c>
       <c r="E5">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -606,28 +606,28 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.353</v>
+        <v>0.335</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>2.166</v>
+        <v>2.153</v>
       </c>
       <c r="K5">
-        <v>1.259</v>
+        <v>1.34</v>
       </c>
       <c r="L5">
-        <v>0.202</v>
+        <v>0.191</v>
       </c>
       <c r="M5">
-        <v>0.126</v>
+        <v>0.12</v>
       </c>
       <c r="N5">
-        <v>0.277</v>
+        <v>0.263</v>
       </c>
       <c r="O5">
-        <v>6.172</v>
+        <v>6.220000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -637,46 +637,46 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.076</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="C6">
-        <v>22.72</v>
+        <v>21.866</v>
       </c>
       <c r="D6">
-        <v>1.89</v>
+        <v>1.962</v>
       </c>
       <c r="E6">
-        <v>0.151</v>
+        <v>0.191</v>
       </c>
       <c r="F6">
-        <v>1.31</v>
+        <v>1.268</v>
       </c>
       <c r="G6">
-        <v>0.453</v>
+        <v>0.502</v>
       </c>
       <c r="H6">
-        <v>4.66</v>
+        <v>4.425</v>
       </c>
       <c r="I6">
-        <v>0.655</v>
+        <v>0.646</v>
       </c>
       <c r="J6">
-        <v>40.453</v>
+        <v>41.005</v>
       </c>
       <c r="K6">
-        <v>16.75</v>
+        <v>17.68</v>
       </c>
       <c r="L6">
-        <v>5.568</v>
+        <v>5.143</v>
       </c>
       <c r="M6">
-        <v>2.67</v>
+        <v>2.632</v>
       </c>
       <c r="N6">
-        <v>2.646</v>
+        <v>2.607</v>
       </c>
       <c r="O6">
-        <v>100.002</v>
+        <v>99.999</v>
       </c>
     </row>
   </sheetData>
